--- a/Cronograma/CRONOGRAMA CRUD PROYECTO XYZ.xlsx
+++ b/Cronograma/CRONOGRAMA CRUD PROYECTO XYZ.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zetto\Documents\Sebastian\Sena\Tercer trimestre\Xemmp\ProyectoPIS\Cronograma\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anail\Desktop\EJERCICIOS\ProyectoPIS\Cronograma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E82FD9-5EA3-4030-9999-9F687D441DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="CRONOGRAMA RESPONSABLES" sheetId="2" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="37">
   <si>
     <t>TABLA 1 (NOMBRE)</t>
   </si>
@@ -134,12 +133,15 @@
   </si>
   <si>
     <t>SEBSATIAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problema en el archivo rolDAO.php no me deja abrir  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -444,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -482,6 +484,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -509,55 +562,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -578,23 +598,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -909,11 +914,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,239 +934,243 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="24"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="18"/>
     </row>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="27"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="24"/>
     </row>
     <row r="4" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="29" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="22" t="s">
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="23"/>
-      <c r="M4" s="24"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="18"/>
     </row>
     <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="28"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="34" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="32"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="21"/>
     </row>
     <row r="6" spans="2:13" s="2" customFormat="1" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="36" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="38" t="s">
+      <c r="G6" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="36" t="s">
+      <c r="H6" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="38" t="s">
+      <c r="I6" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="38" t="s">
+      <c r="J6" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="28"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="32"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="21"/>
     </row>
     <row r="7" spans="2:13" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="30"/>
+      <c r="C7" s="40"/>
       <c r="D7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="27"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="22" t="s">
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="24"/>
+    </row>
+    <row r="8" spans="2:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="B8" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="51">
+        <v>44421</v>
+      </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="15"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="32"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="28"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="49"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="18"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="35"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="28"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="49"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="18"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="35"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="28"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="49"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="18"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="35"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="28"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="49"/>
+      <c r="D12" s="14"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="18"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="35"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="28"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="49"/>
+      <c r="D13" s="14"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="18"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="35"/>
     </row>
     <row r="14" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="25"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="50"/>
+      <c r="D14" s="15"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="21"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="38"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="48" t="s">
+      <c r="D15" s="13" t="s">
         <v>35</v>
       </c>
       <c r="E15" s="3"/>
@@ -1170,114 +1179,114 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="15"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="32"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="28"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="49"/>
+      <c r="D16" s="14"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="18"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="35"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="28"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="49"/>
+      <c r="D17" s="14"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="18"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="35"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="28"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="49"/>
+      <c r="D18" s="14"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="18"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="35"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="28"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="49"/>
+      <c r="D19" s="14"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="18"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="35"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="28"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="49"/>
+      <c r="D20" s="14"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="18"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="35"/>
     </row>
     <row r="21" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="25"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="50"/>
+      <c r="D21" s="15"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="21"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="38"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="16" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="48" t="s">
+      <c r="D22" s="13" t="s">
         <v>34</v>
       </c>
       <c r="E22" s="3"/>
@@ -1286,114 +1295,114 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="15"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="32"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="28"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="49"/>
+      <c r="D23" s="14"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="18"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="35"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="28"/>
+      <c r="B24" s="19"/>
       <c r="C24" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="49"/>
+      <c r="D24" s="14"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="18"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="35"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="28"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="49"/>
+      <c r="D25" s="14"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="18"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="35"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="28"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="49"/>
+      <c r="D26" s="14"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="18"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="35"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="28"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="49"/>
+      <c r="D27" s="14"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="18"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="35"/>
     </row>
     <row r="28" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="25"/>
+      <c r="B28" s="22"/>
       <c r="C28" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="50"/>
+      <c r="D28" s="15"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="21"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="38"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="16" t="s">
         <v>31</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="48" t="s">
+      <c r="D29" s="13" t="s">
         <v>35</v>
       </c>
       <c r="E29" s="3"/>
@@ -1402,114 +1411,114 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="15"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="32"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="28"/>
+      <c r="B30" s="19"/>
       <c r="C30" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="49"/>
+      <c r="D30" s="14"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="18"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="35"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="28"/>
+      <c r="B31" s="19"/>
       <c r="C31" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="49"/>
+      <c r="D31" s="14"/>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="18"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="35"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="28"/>
+      <c r="B32" s="19"/>
       <c r="C32" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="49"/>
+      <c r="D32" s="14"/>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="18"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="35"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="28"/>
+      <c r="B33" s="19"/>
       <c r="C33" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="49"/>
+      <c r="D33" s="14"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="18"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="35"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="28"/>
+      <c r="B34" s="19"/>
       <c r="C34" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="49"/>
+      <c r="D34" s="14"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="18"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="35"/>
     </row>
     <row r="35" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="25"/>
+      <c r="B35" s="22"/>
       <c r="C35" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="50"/>
+      <c r="D35" s="15"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="21"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="38"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="48" t="s">
+      <c r="D36" s="13" t="s">
         <v>34</v>
       </c>
       <c r="E36" s="3"/>
@@ -1518,114 +1527,114 @@
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="15"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="32"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="28"/>
+      <c r="B37" s="19"/>
       <c r="C37" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="49"/>
+      <c r="D37" s="14"/>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
       <c r="J37" s="12"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="18"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="35"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="28"/>
+      <c r="B38" s="19"/>
       <c r="C38" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="49"/>
+      <c r="D38" s="14"/>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
       <c r="J38" s="12"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="18"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="35"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="28"/>
+      <c r="B39" s="19"/>
       <c r="C39" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="49"/>
+      <c r="D39" s="14"/>
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
       <c r="J39" s="12"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="18"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="35"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="28"/>
+      <c r="B40" s="19"/>
       <c r="C40" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="49"/>
+      <c r="D40" s="14"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="18"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="35"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="28"/>
+      <c r="B41" s="19"/>
       <c r="C41" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="49"/>
+      <c r="D41" s="14"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="18"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="35"/>
     </row>
     <row r="42" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="25"/>
+      <c r="B42" s="22"/>
       <c r="C42" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="50"/>
+      <c r="D42" s="15"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="21"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="38"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D43" s="48" t="s">
+      <c r="D43" s="13" t="s">
         <v>35</v>
       </c>
       <c r="E43" s="3"/>
@@ -1634,122 +1643,108 @@
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="15"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="32"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="28"/>
+      <c r="B44" s="19"/>
       <c r="C44" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D44" s="49"/>
+      <c r="D44" s="14"/>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
       <c r="J44" s="12"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="18"/>
+      <c r="K44" s="33"/>
+      <c r="L44" s="34"/>
+      <c r="M44" s="35"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="28"/>
+      <c r="B45" s="19"/>
       <c r="C45" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D45" s="49"/>
+      <c r="D45" s="14"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
       <c r="J45" s="12"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="18"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="34"/>
+      <c r="M45" s="35"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="28"/>
+      <c r="B46" s="19"/>
       <c r="C46" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="49"/>
+      <c r="D46" s="14"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
       <c r="J46" s="12"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="18"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="34"/>
+      <c r="M46" s="35"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="28"/>
+      <c r="B47" s="19"/>
       <c r="C47" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D47" s="49"/>
+      <c r="D47" s="14"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="18"/>
+      <c r="K47" s="33"/>
+      <c r="L47" s="34"/>
+      <c r="M47" s="35"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="28"/>
+      <c r="B48" s="19"/>
       <c r="C48" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D48" s="49"/>
+      <c r="D48" s="14"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="17"/>
-      <c r="M48" s="18"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="34"/>
+      <c r="M48" s="35"/>
     </row>
     <row r="49" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="25"/>
+      <c r="B49" s="22"/>
       <c r="C49" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="50"/>
+      <c r="D49" s="15"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="21"/>
+      <c r="K49" s="36"/>
+      <c r="L49" s="37"/>
+      <c r="M49" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D43:D49"/>
-    <mergeCell ref="D8:D14"/>
-    <mergeCell ref="D15:D21"/>
-    <mergeCell ref="D22:D28"/>
-    <mergeCell ref="D29:D35"/>
-    <mergeCell ref="D36:D42"/>
-    <mergeCell ref="K4:M7"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
     <mergeCell ref="K43:M49"/>
     <mergeCell ref="B2:M3"/>
     <mergeCell ref="K8:M14"/>
@@ -1766,6 +1761,20 @@
     <mergeCell ref="B8:B14"/>
     <mergeCell ref="B4:D6"/>
     <mergeCell ref="E4:J4"/>
+    <mergeCell ref="K4:M7"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D43:D49"/>
+    <mergeCell ref="D8:D14"/>
+    <mergeCell ref="D15:D21"/>
+    <mergeCell ref="D22:D28"/>
+    <mergeCell ref="D29:D35"/>
+    <mergeCell ref="D36:D42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1773,7 +1782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M29"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -1793,507 +1802,520 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="29" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="22" t="s">
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="24"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="18"/>
     </row>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="28"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="34" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="32"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="21"/>
     </row>
     <row r="4" spans="2:13" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="25"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="36" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="I4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="38" t="s">
+      <c r="J4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="28"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="32"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="21"/>
     </row>
     <row r="5" spans="2:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="30"/>
+      <c r="C5" s="40"/>
       <c r="D5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="27"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="24"/>
     </row>
     <row r="6" spans="2:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="16" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="47"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="44"/>
     </row>
     <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="28"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="47"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="44"/>
     </row>
     <row r="8" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="28"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="47"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="44"/>
     </row>
     <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="25"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="47"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="44"/>
     </row>
     <row r="10" spans="2:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="47"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="44"/>
     </row>
     <row r="11" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="28"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="47"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="44"/>
     </row>
     <row r="12" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="28"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="47"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="44"/>
     </row>
     <row r="13" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="25"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="5"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="44"/>
     </row>
     <row r="14" spans="2:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="47"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="44"/>
     </row>
     <row r="15" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="28"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="47"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="44"/>
     </row>
     <row r="16" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="28"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="47"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="44"/>
     </row>
     <row r="17" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="25"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="5"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="44"/>
     </row>
     <row r="18" spans="2:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="47"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="44"/>
     </row>
     <row r="19" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="28"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="47"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="44"/>
     </row>
     <row r="20" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="28"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="47"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="44"/>
     </row>
     <row r="21" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="25"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="5"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="44"/>
     </row>
     <row r="22" spans="2:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="3"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="47"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="44"/>
     </row>
     <row r="23" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="28"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="4"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="47"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="44"/>
     </row>
     <row r="24" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="28"/>
+      <c r="B24" s="19"/>
       <c r="C24" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="4"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="47"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="44"/>
     </row>
     <row r="25" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="25"/>
+      <c r="B25" s="22"/>
       <c r="C25" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="5"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="44"/>
     </row>
     <row r="26" spans="2:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="3"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="47"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="44"/>
     </row>
     <row r="27" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="28"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="4"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="47"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="44"/>
     </row>
     <row r="28" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="28"/>
+      <c r="B28" s="19"/>
       <c r="C28" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="4"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="47"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="44"/>
     </row>
     <row r="29" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="25"/>
+      <c r="B29" s="22"/>
       <c r="C29" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="6"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="K2:M5"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="E3:J3"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="J14:J17"/>
     <mergeCell ref="K10:M10"/>
     <mergeCell ref="E26:E29"/>
     <mergeCell ref="F26:F29"/>
@@ -2310,43 +2332,30 @@
     <mergeCell ref="E18:E21"/>
     <mergeCell ref="F18:F21"/>
     <mergeCell ref="G18:G21"/>
-    <mergeCell ref="H18:H21"/>
-    <mergeCell ref="I18:I21"/>
-    <mergeCell ref="J18:J21"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="I14:I17"/>
-    <mergeCell ref="J14:J17"/>
-    <mergeCell ref="J10:J13"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="E3:J3"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="J6:J9"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="K2:M5"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="K28:M28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
